--- a/main/Cases/Example3_time.xlsx
+++ b/main/Cases/Example3_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi Costa\Documents\agistin\main\Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2544E1E5-7CCE-4650-A245-5F2840A29FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E548E9D5-732D-45E6-82E8-3D0571FEE784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Grid" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>Irrigation1_Q</t>
   </si>
   <si>
-    <t>PV1_forecast</t>
+    <t>PV_forecast</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDBFD1F-93C1-4DFD-8CBE-DA36DEB8F281}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB1DA86-E473-4447-9EDD-C35A3EE02889}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/main/Cases/Example3_time.xlsx
+++ b/main/Cases/Example3_time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi Costa\Documents\agistin\main\Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paugm\OneDrive\Documentos\Universitat\CITCEA\agistin\main\Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E548E9D5-732D-45E6-82E8-3D0571FEE784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5570B62-6737-4AC0-B32F-1BD06F32C2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="4" xr2:uid="{A5667F64-109C-47C3-884E-1862F3FE77BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Grid" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="NewPump" sheetId="7" r:id="rId10"/>
     <sheet name="Turbine" sheetId="8" r:id="rId11"/>
     <sheet name="Switch" sheetId="11" r:id="rId12"/>
+    <sheet name="Battery_Ex0" sheetId="13" r:id="rId13"/>
+    <sheet name="Battery" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Reservoir0_Q</t>
   </si>
@@ -93,14 +95,28 @@
   </si>
   <si>
     <t>PV_forecast</t>
+  </si>
+  <si>
+    <t>Battery_E</t>
+  </si>
+  <si>
+    <t>Battery_P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -128,9 +144,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,7 +166,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -445,19 +462,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDBFD1F-93C1-4DFD-8CBE-DA36DEB8F281}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -472,9 +492,9 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -489,9 +509,9 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -506,8 +526,134 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE55803-7D92-4623-9AA1-92A9DEE28C55}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D35C78B-C7C0-40FA-8C0D-238096AEBA72}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -517,18 +663,18 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -556,7 +702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -570,7 +716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -584,7 +730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -598,7 +744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -625,12 +771,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -638,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -646,7 +792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -654,7 +800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -662,7 +808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -670,7 +816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -688,15 +834,15 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -722,7 +868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -750,7 +896,7 @@
         <v>981000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -778,7 +924,7 @@
         <v>981000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -806,7 +952,7 @@
         <v>981000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -834,7 +980,7 @@
         <v>981000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -871,44 +1017,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34E40F0-B7E1-4056-8BFB-2AABAC8389B5}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -924,9 +1070,9 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -937,45 +1083,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB1DA86-E473-4447-9EDD-C35A3EE02889}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -991,9 +1137,9 @@
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1005,12 +1151,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
